--- a/app/src/main/assets/testdata.xlsx
+++ b/app/src/main/assets/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junaid Javed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junaid.javed\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tahreem" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BA44" sqref="BA44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,10 +1451,18 @@
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
       <c r="T3" s="2">
         <v>1</v>
       </c>
@@ -6170,7 +6178,9 @@
       <c r="AF31" s="2">
         <v>1</v>
       </c>
-      <c r="AG31" s="2"/>
+      <c r="AG31" s="2">
+        <v>0</v>
+      </c>
       <c r="AH31" s="2">
         <v>1</v>
       </c>
@@ -6335,7 +6345,9 @@
       <c r="AF32" s="2">
         <v>1</v>
       </c>
-      <c r="AG32" s="2"/>
+      <c r="AG32" s="2">
+        <v>0</v>
+      </c>
       <c r="AH32" s="2">
         <v>1</v>
       </c>
@@ -7657,7 +7669,9 @@
       <c r="AB40" s="2">
         <v>0</v>
       </c>
-      <c r="AC40" s="2"/>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
       <c r="AD40" s="2">
         <v>0</v>
       </c>
